--- a/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Min.xlsx
+++ b/Recycling/Met_rec_tech/metrec_tech_Avg_hist_Min.xlsx
@@ -137,7 +137,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.568799948591271E-12</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -690,13 +690,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.19552883243917E-06</v>
+      </c>
+      <c r="E7">
         <v>7.226734352835839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.528077516408922E-08</v>
-      </c>
-      <c r="F7">
-        <v>4.19552883243917E-06</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -706,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.3851694014891043</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.45974053452379</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -805,13 +805,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>556871.5205526581</v>
+      </c>
+      <c r="E7">
         <v>1336152.607067982</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>97944.19532554173</v>
-      </c>
-      <c r="F7">
-        <v>556871.5205526581</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -821,10 +821,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71214.06085177728</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.03768417507519</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -920,13 +920,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535796.2205262253</v>
+      </c>
+      <c r="E7">
         <v>1373354.020580092</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>95270.28431028844</v>
-      </c>
-      <c r="F7">
-        <v>535796.2205262253</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -936,10 +936,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73196.81619844164</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.815447743123975E-11</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1035,13 +1035,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>5.594154070402901E-05</v>
+      </c>
+      <c r="E7">
         <v>14.74435589275418</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5.584970418529969E-07</v>
-      </c>
-      <c r="F7">
-        <v>5.594154070402901E-05</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1051,10 +1051,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.7858424645602136</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1121,10 +1121,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.14927716028001E-09</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1150,13 +1150,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.0006237725819707033</v>
+      </c>
+      <c r="E7">
         <v>31.25279370672077</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7.281171790579253E-06</v>
-      </c>
-      <c r="F7">
-        <v>0.0006237725819707033</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1166,10 +1166,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1.665706702247386</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1236,10 +1236,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.03320903577259E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1265,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.004879943551481552</v>
+      </c>
+      <c r="E7">
         <v>55.65545350915536</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.545829626689941E-05</v>
-      </c>
-      <c r="F7">
-        <v>0.004879943551481552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1281,10 +1281,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.966315997116185</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.491035993221326E-08</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1380,13 +1380,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.035489596898837</v>
+      </c>
+      <c r="E7">
         <v>107.4055881515678</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0005379441433567968</v>
-      </c>
-      <c r="F7">
-        <v>0.035489596898837</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1396,10 +1396,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5.724486896171968</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.686773915310149E-07</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1495,13 +1495,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.2135744075570983</v>
+      </c>
+      <c r="E7">
         <v>195.4142668023369</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.00360281916691618</v>
-      </c>
-      <c r="F7">
-        <v>0.2135744075570983</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1511,10 +1511,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10.4151602247774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.745636881563046E-06</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0.9391127702260715</v>
+      </c>
+      <c r="E7">
         <v>289.2683677961735</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01739480649240443</v>
-      </c>
-      <c r="F7">
-        <v>0.9391127702260715</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1626,10 +1626,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>15.41738199496167</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1696,10 +1696,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.395131715566171E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1725,13 +1725,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>4.397051300453986</v>
+      </c>
+      <c r="E7">
         <v>496.7959020066499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.08838767568519242</v>
-      </c>
-      <c r="F7">
-        <v>4.397051300453986</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1741,10 +1741,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>26.47815332565161</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1811,10 +1811,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.494682069952829E-05</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1840,13 +1840,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>19.05193269233036</v>
+      </c>
+      <c r="E7">
         <v>844.9769100047776</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.411466420032222</v>
-      </c>
-      <c r="F7">
-        <v>19.05193269233036</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1856,10 +1856,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>45.0354523645856</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.0002810885330685197</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1955,13 +1955,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>77.39717857208002</v>
+      </c>
+      <c r="E7">
         <v>1423.156425136479</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.780818385997649</v>
-      </c>
-      <c r="F7">
-        <v>77.39717857208002</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1971,10 +1971,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75.85117727208127</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2156,10 +2156,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.001012018952578087</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2185,13 +2185,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>263.2821307687013</v>
+      </c>
+      <c r="E7">
         <v>2101.876638479271</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6.411581212705754</v>
-      </c>
-      <c r="F7">
-        <v>263.2821307687013</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2201,10 +2201,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>112.025505203371</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2271,10 +2271,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.003625922876114615</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2300,13 +2300,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>894.389504565175</v>
+      </c>
+      <c r="E7">
         <v>3235.849101313763</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22.97180199243618</v>
-      </c>
-      <c r="F7">
-        <v>894.389504565175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2316,10 +2316,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>172.4637991118351</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2386,10 +2386,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.01222547667685862</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2415,13 +2415,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2850.672558472982</v>
+      </c>
+      <c r="E7">
         <v>4905.754331605283</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>77.45372394265607</v>
-      </c>
-      <c r="F7">
-        <v>2850.672558472982</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2431,10 +2431,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>261.4661571191574</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.03262385757322993</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2530,13 +2530,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>7061.394638291405</v>
+      </c>
+      <c r="E7">
         <v>6218.012532569882</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>206.6863587580587</v>
-      </c>
-      <c r="F7">
-        <v>7061.394638291405</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2546,10 +2546,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>331.4066975053365</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.08965709589394011</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2645,13 +2645,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>17116.18862995353</v>
+      </c>
+      <c r="E7">
         <v>8855.089023479248</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>568.016784819047</v>
-      </c>
-      <c r="F7">
-        <v>17116.18862995353</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2661,10 +2661,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>471.957204012604</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2731,10 +2731,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1984940439018861</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2760,13 +2760,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>30246.74918773493</v>
+      </c>
+      <c r="E7">
         <v>11982.76713749446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1257.546293449604</v>
-      </c>
-      <c r="F7">
-        <v>30246.74918773493</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2776,10 +2776,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>638.6557220995574</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3136865577071159</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2875,13 +2875,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36047.50425497201</v>
+      </c>
+      <c r="E7">
         <v>15843.39855464975</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1987.341081853995</v>
-      </c>
-      <c r="F7">
-        <v>36047.50425497201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2891,10 +2891,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>844.4190751875561</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2928442817090008</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2990,13 +2990,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34219.63044032263</v>
+      </c>
+      <c r="E7">
         <v>20491.00037267816</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1855.296178071196</v>
-      </c>
-      <c r="F7">
-        <v>34219.63044032263</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3006,10 +3006,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1092.126258433779</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3076,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1640690322190035</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3105,13 +3105,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>34134.8215933223</v>
+      </c>
+      <c r="E7">
         <v>25949.46086060936</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1039.448838267691</v>
-      </c>
-      <c r="F7">
-        <v>34134.8215933223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3121,10 +3121,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1383.050465210989</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3191,10 +3191,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.1323479673835924</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3220,13 +3220,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>36171.72307232078</v>
+      </c>
+      <c r="E7">
         <v>32204.93847298111</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>838.4820650391525</v>
-      </c>
-      <c r="F7">
-        <v>36171.72307232078</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3236,10 +3236,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>1716.453970909277</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3335,10 +3335,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>4.54087878775921E-05</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3351,10 +3351,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2.420190752174883E-06</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3421,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.2191835861319442</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3450,13 +3450,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>38450.19209892946</v>
+      </c>
+      <c r="E7">
         <v>39205.06140917672</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1388.623562233745</v>
-      </c>
-      <c r="F7">
-        <v>38450.19209892946</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3466,10 +3466,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2089.545471169915</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3536,10 +3536,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.3193738018143775</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3565,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>40169.78959881386</v>
+      </c>
+      <c r="E7">
         <v>46867.36192972037</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2023.372252394131</v>
-      </c>
-      <c r="F7">
-        <v>40169.78959881386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3581,10 +3581,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2497.92961280774</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3651,10 +3651,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.4492278741700407</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3680,13 +3680,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41939.12459931916</v>
+      </c>
+      <c r="E7">
         <v>55098.41004144499</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>2846.054405320178</v>
-      </c>
-      <c r="F7">
-        <v>41939.12459931916</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3696,10 +3696,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>2936.626778087784</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.6163336996233363</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3795,13 +3795,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45230.37263274509</v>
+      </c>
+      <c r="E7">
         <v>63826.98768236293</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3904.742652492473</v>
-      </c>
-      <c r="F7">
-        <v>45230.37263274509</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3811,10 +3811,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3401.841197445023</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3881,10 +3881,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.7265899963497077</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3910,13 +3910,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45486.78818357726</v>
+      </c>
+      <c r="E7">
         <v>73054.50735864096</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4603.264353961069</v>
-      </c>
-      <c r="F7">
-        <v>45486.78818357726</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3926,10 +3926,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>3893.648154420861</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3996,10 +3996,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>0.8695314673643961</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4025,13 +4025,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>44859.95778185703</v>
+      </c>
+      <c r="E7">
         <v>82923.70938790012</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>5508.86088230631</v>
-      </c>
-      <c r="F7">
-        <v>44859.95778185703</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4041,10 +4041,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4419.655401012558</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1.373539236567406</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4140,13 +4140,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45763.15887351072</v>
+      </c>
+      <c r="E7">
         <v>93802.68641903078</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>8701.969801707117</v>
-      </c>
-      <c r="F7">
-        <v>45763.15887351072</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4156,10 +4156,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>4999.481483902961</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4226,10 +4226,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.216306550013996</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4255,13 +4255,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45978.4462698257</v>
+      </c>
+      <c r="E7">
         <v>106374.934672026</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>14041.26810220977</v>
-      </c>
-      <c r="F7">
-        <v>45978.4462698257</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4271,10 +4271,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>5669.555281908054</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4341,10 +4341,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.175171891804523</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4370,13 +4370,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>47820.88852141433</v>
+      </c>
+      <c r="E7">
         <v>121718.365497755</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>20116.09802044142</v>
-      </c>
-      <c r="F7">
-        <v>47820.88852141433</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4386,10 +4386,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>6487.327152215763</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4456,10 +4456,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.099922550487377</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4485,13 +4485,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>49656.12647095561</v>
+      </c>
+      <c r="E7">
         <v>141348.201072128</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25974.79655029012</v>
-      </c>
-      <c r="F7">
-        <v>49656.12647095561</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4501,10 +4501,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>7533.55517864707</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4600,10 +4600,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.002282792967984298</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4616,10 +4616,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0001216679565448559</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.948019210911156</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4715,13 +4715,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>48695.39374991335</v>
+      </c>
+      <c r="E7">
         <v>167193.7201670409</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>25012.42267804882</v>
-      </c>
-      <c r="F7">
-        <v>48695.39374991335</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4731,10 +4731,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>8911.065771250549</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.508785260013477</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4830,13 +4830,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>45047.05293925697</v>
+      </c>
+      <c r="E7">
         <v>201489.4409878631</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22229.68413309969</v>
-      </c>
-      <c r="F7">
-        <v>45047.05293925697</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4846,10 +4846,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>10738.95394552803</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -4916,10 +4916,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.404444340868887</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4945,13 +4945,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>41164.98755958056</v>
+      </c>
+      <c r="E7">
         <v>246577.6060817133</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21568.63892717775</v>
-      </c>
-      <c r="F7">
-        <v>41164.98755958056</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4961,10 +4961,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>13142.05619275889</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5031,10 +5031,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.089357261244022</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5060,13 +5060,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>43285.25000754681</v>
+      </c>
+      <c r="E7">
         <v>304636.3973621933</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19572.42492847476</v>
-      </c>
-      <c r="F7">
-        <v>43285.25000754681</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5076,10 +5076,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>16236.46492523265</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5146,10 +5146,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.700853399733246</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5175,13 +5175,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>53647.84910846577</v>
+      </c>
+      <c r="E7">
         <v>377365.1497937063</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>17111.0836134919</v>
-      </c>
-      <c r="F7">
-        <v>53647.84910846577</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5191,10 +5191,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>20112.75104250254</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5261,10 +5261,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.403281534208222</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5290,13 +5290,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78626.83494367498</v>
+      </c>
+      <c r="E7">
         <v>465666.109686013</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>15225.83613115008</v>
-      </c>
-      <c r="F7">
-        <v>78626.83494367498</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5306,10 +5306,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>24819.00233279482</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5376,10 +5376,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.115644181974725</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5405,13 +5405,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>124847.1588723904</v>
+      </c>
+      <c r="E7">
         <v>569360.7198544305</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19738.96403000789</v>
-      </c>
-      <c r="F7">
-        <v>124847.1588723904</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5421,10 +5421,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>30345.70208211417</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5491,10 +5491,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.839724918377024</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5520,13 +5520,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>187600.1004479086</v>
+      </c>
+      <c r="E7">
         <v>686969.2727516419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>30661.76703734776</v>
-      </c>
-      <c r="F7">
-        <v>187600.1004479086</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5536,10 +5536,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36613.98505997715</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5606,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.744847732850421</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5635,13 +5635,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>256695.9014398751</v>
+      </c>
+      <c r="E7">
         <v>815575.1183711772</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>42731.55052713104</v>
-      </c>
-      <c r="F7">
-        <v>256695.9014398751</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5651,10 +5651,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>43468.40009265905</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5721,10 +5721,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.498349242859979</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5750,13 +5750,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>354890.3186249605</v>
+      </c>
+      <c r="E7">
         <v>950796.5976579486</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60176.18286900606</v>
-      </c>
-      <c r="F7">
-        <v>354890.3186249605</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5766,10 +5766,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>50675.41417432638</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5865,10 +5865,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.02208448644607931</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.001177055639701584</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -5951,10 +5951,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.06358003412269</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5980,13 +5980,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>480164.7545394027</v>
+      </c>
+      <c r="E7">
         <v>1086899.384711999</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>82763.47404768216</v>
-      </c>
-      <c r="F7">
-        <v>480164.7545394027</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5996,10 +5996,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>57929.40006492947</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6066,10 +6066,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.84303940266755</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6095,13 +6095,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>543883.8785434393</v>
+      </c>
+      <c r="E7">
         <v>1217086.977021091</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94037.12482968686</v>
-      </c>
-      <c r="F7">
-        <v>543883.8785434393</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6111,10 +6111,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64868.11879496322</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6181,10 +6181,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.92622052887667</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6210,13 +6210,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>548039.6252630007</v>
+      </c>
+      <c r="E7">
         <v>1333993.237185227</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>94564.11352361935</v>
-      </c>
-      <c r="F7">
-        <v>548039.6252630007</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6226,10 +6226,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71098.97108028072</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.80867549289485</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6325,13 +6325,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>543295.7426049202</v>
+      </c>
+      <c r="E7">
         <v>1430361.984109632</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93819.41448174081</v>
-      </c>
-      <c r="F7">
-        <v>543295.7426049202</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6341,10 +6341,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>76235.21807136634</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6411,10 +6411,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.50489569399113</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6440,13 +6440,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>530631.4597041662</v>
+      </c>
+      <c r="E7">
         <v>1499842.877576031</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91894.83703535114</v>
-      </c>
-      <c r="F7">
-        <v>530631.4597041662</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6456,10 +6456,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>79938.40028960846</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6526,10 +6526,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.04807222471453</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6555,13 +6555,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>511673.1457131552</v>
+      </c>
+      <c r="E7">
         <v>1537780.47925404</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>89000.66122404303</v>
-      </c>
-      <c r="F7">
-        <v>511673.1457131552</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6571,10 +6571,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>81960.39288250302</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6641,10 +6641,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.75987734378129</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6670,13 +6670,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>497226.5859056783</v>
+      </c>
+      <c r="E7">
         <v>1541847.909843378</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>87174.82102660171</v>
-      </c>
-      <c r="F7">
-        <v>497226.5859056783</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6686,10 +6686,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>82177.17818679176</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6756,10 +6756,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.4248310184526</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6785,13 +6785,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>478364.4308441724</v>
+      </c>
+      <c r="E7">
         <v>1512394.271979677</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>85052.15650595105</v>
-      </c>
-      <c r="F7">
-        <v>478364.4308441724</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6801,10 +6801,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>80607.36262228485</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6871,10 +6871,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.36019260424457</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6900,13 +6900,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>428951.4962819651</v>
+      </c>
+      <c r="E7">
         <v>1452436.844992717</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78307.20806652513</v>
-      </c>
-      <c r="F7">
-        <v>428951.4962819651</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6916,10 +6916,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>77411.76068925799</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6986,10 +6986,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.898897046924651</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7015,13 +7015,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>323881.4734124836</v>
+      </c>
+      <c r="E7">
         <v>1367316.556516337</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>62713.82781013028</v>
-      </c>
-      <c r="F7">
-        <v>323881.4734124836</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7031,10 +7031,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>72875.03234609403</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7130,10 +7130,10 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.1049280353515915</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7146,10 +7146,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.005592438659370508</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7216,10 +7216,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.543712204316099</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7245,13 +7245,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>182600.4369534705</v>
+      </c>
+      <c r="E7">
         <v>1264113.893231815</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>41457.26927708813</v>
-      </c>
-      <c r="F7">
-        <v>182600.4369534705</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7261,10 +7261,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>67374.55230786171</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7331,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.118050529754802</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7360,13 +7360,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>109844.3931757079</v>
+      </c>
+      <c r="E7">
         <v>1150958.857510956</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32425.08111005227</v>
-      </c>
-      <c r="F7">
-        <v>109844.3931757079</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7376,10 +7376,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61343.63221918038</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7446,10 +7446,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.283089546391439</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7475,13 +7475,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>101764.5047076255</v>
+      </c>
+      <c r="E7">
         <v>1036347.397970039</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33470.67522243056</v>
-      </c>
-      <c r="F7">
-        <v>101764.5047076255</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7491,10 +7491,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>55235.08787261188</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7561,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.068000119919359</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7590,13 +7590,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>94091.52356343954</v>
+      </c>
+      <c r="E7">
         <v>928514.4173015446</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32107.98994632292</v>
-      </c>
-      <c r="F7">
-        <v>94091.52356343954</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7606,10 +7606,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>49487.82187430215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7676,10 +7676,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.405256278373876</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7705,13 +7705,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>78821.6180262993</v>
+      </c>
+      <c r="E7">
         <v>834855.3804594548</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>27909.2188141572</v>
-      </c>
-      <c r="F7">
-        <v>78821.6180262993</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7721,10 +7721,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44495.99660396304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7791,10 +7791,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.612611876822859</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7820,13 +7820,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61721.20776872117</v>
+      </c>
+      <c r="E7">
         <v>761379.8307091658</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>22887.47100953912</v>
-      </c>
-      <c r="F7">
-        <v>61721.20776872117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40579.90779542724</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -7906,10 +7906,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.128982573932096</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7935,13 +7935,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>61293.3453084706</v>
+      </c>
+      <c r="E7">
         <v>712228.9640698496</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19823.46855738234</v>
-      </c>
-      <c r="F7">
-        <v>61293.3453084706</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7951,10 +7951,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>37960.2722917772</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8021,10 +8021,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.050428110415653</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8050,13 +8050,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>81383.56940368535</v>
+      </c>
+      <c r="E7">
         <v>689353.8901042407</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>19325.7917884116</v>
-      </c>
-      <c r="F7">
-        <v>81383.56940368535</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8066,10 +8066,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36741.08003727083</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>3.421345343325993</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8165,13 +8165,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>117333.2826518004</v>
+      </c>
+      <c r="E7">
         <v>692468.5327214358</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>21675.71414504181</v>
-      </c>
-      <c r="F7">
-        <v>117333.2826518004</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8181,10 +8181,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>36907.08379140725</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8251,10 +8251,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>4.490855313922271</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8280,13 +8280,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>170008.23374919</v>
+      </c>
+      <c r="E7">
         <v>719328.1499234148</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>28451.52601774237</v>
-      </c>
-      <c r="F7">
-        <v>170008.23374919</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8296,10 +8296,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>38338.64363252041</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8366,10 +8366,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.375369740878307E-17</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8395,13 +8395,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>1.002442353974727E-10</v>
+      </c>
+      <c r="E7">
         <v>0.3701292316466419</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4.672618229817701E-13</v>
-      </c>
-      <c r="F7">
-        <v>1.002442353974727E-10</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.01972709216452881</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8481,10 +8481,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.25257302713564</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8510,13 +8510,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>237769.0610619869</v>
+      </c>
+      <c r="E7">
         <v>766267.9944360858</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>39612.77567947559</v>
-      </c>
-      <c r="F7">
-        <v>237769.0610619869</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8526,10 +8526,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>40840.43641114143</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8596,10 +8596,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.485690735763226</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8625,13 +8625,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>318134.2999981861</v>
+      </c>
+      <c r="E7">
         <v>828837.8705530071</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>53760.54979963702</v>
-      </c>
-      <c r="F7">
-        <v>318134.2999981861</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8641,10 +8641,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>44175.27626529284</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8711,10 +8711,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.97372777966373</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8740,13 +8740,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>406664.1673288831</v>
+      </c>
+      <c r="E7">
         <v>902351.1599164074</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>69523.34903037333</v>
-      </c>
-      <c r="F7">
-        <v>406664.1673288831</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8756,10 +8756,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>48093.37651405666</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8826,10 +8826,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.21420285676344</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8855,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>486060.2888687524</v>
+      </c>
+      <c r="E7">
         <v>982240.5494960728</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83717.73528694845</v>
-      </c>
-      <c r="F7">
-        <v>486060.2888687524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8871,10 +8871,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>52351.30919393368</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -8941,10 +8941,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.50668646504469</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -8970,13 +8970,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>531986.4855993566</v>
+      </c>
+      <c r="E7">
         <v>1064224.685991204</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>91906.1823505886</v>
-      </c>
-      <c r="F7">
-        <v>531986.4855993566</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -8986,10 +8986,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>56720.88738010835</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9056,10 +9056,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.81253247767911</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9085,13 +9085,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>542711.7715030321</v>
+      </c>
+      <c r="E7">
         <v>1144367.353220443</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93843.85016164332</v>
-      </c>
-      <c r="F7">
-        <v>542711.7715030321</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9101,10 +9101,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60992.31921408927</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9171,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.65706242661151</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9200,13 +9200,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>535982.8669947472</v>
+      </c>
+      <c r="E7">
         <v>1219116.703026928</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>92858.87961734259</v>
-      </c>
-      <c r="F7">
-        <v>535982.8669947472</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9216,10 +9216,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64976.29882659093</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9286,10 +9286,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.35690064926274</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9315,13 +9315,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>522687.1784784323</v>
+      </c>
+      <c r="E7">
         <v>1285367.220557414</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>90957.22391463164</v>
-      </c>
-      <c r="F7">
-        <v>522687.1784784323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9331,10 +9331,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>68507.30895366827</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.00891786778552</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9430,13 +9430,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>506027.792500028</v>
+      </c>
+      <c r="E7">
         <v>1340540.708879573</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>88752.60130516299</v>
-      </c>
-      <c r="F7">
-        <v>506027.792500028</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9446,10 +9446,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71447.9372426786</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9516,10 +9516,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.671409983155</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9545,13 +9545,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>487300.406867114</v>
+      </c>
+      <c r="E7">
         <v>1382666.08625105</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>86614.34173331951</v>
-      </c>
-      <c r="F7">
-        <v>487300.406867114</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9561,10 +9561,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73693.12927513616</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9631,10 +9631,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.09304452399285E-15</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9660,13 +9660,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>6.520844055587318E-09</v>
+      </c>
+      <c r="E7">
         <v>1.181992250171839</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.8602093072163E-11</v>
-      </c>
-      <c r="F7">
-        <v>6.520844055587318E-09</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9676,10 +9676,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.0629976453174587</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.25220312421031</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9775,13 +9775,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>462100.844312998</v>
+      </c>
+      <c r="E7">
         <v>1410446.735667515</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83958.48354588126</v>
-      </c>
-      <c r="F7">
-        <v>462100.844312998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9791,10 +9791,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75173.77815280241</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9861,10 +9861,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>12.38310494359181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -9890,13 +9890,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>416708.6908179031</v>
+      </c>
+      <c r="E7">
         <v>1423316.491609291</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>78452.36772398373</v>
-      </c>
-      <c r="F7">
-        <v>416708.6908179031</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -9906,10 +9906,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75859.70847089407</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -9976,10 +9976,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>10.61383283013594</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10005,13 +10005,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>336097.7035914108</v>
+      </c>
+      <c r="E7">
         <v>1421486.674731133</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>67243.25764368355</v>
-      </c>
-      <c r="F7">
-        <v>336097.7035914108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10021,10 +10021,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>75762.18316591064</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10091,10 +10091,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>8.596953001057871</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10120,13 +10120,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>246050.8676083099</v>
+      </c>
+      <c r="E7">
         <v>1405977.904581076</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>54465.44475049635</v>
-      </c>
-      <c r="F7">
-        <v>246050.8676083099</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10136,10 +10136,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>74935.59906514244</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.36539107333056</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10235,13 +10235,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>187367.8427424136</v>
+      </c>
+      <c r="E7">
         <v>1378619.812734453</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46662.96308947149</v>
-      </c>
-      <c r="F7">
-        <v>187367.8427424136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10251,10 +10251,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>73477.47159733083</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10321,10 +10321,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.853859370135283</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10350,13 +10350,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>161991.3115663408</v>
+      </c>
+      <c r="E7">
         <v>1341995.743317194</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>43422.18676847948</v>
-      </c>
-      <c r="F7">
-        <v>161991.3115663408</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10366,10 +10366,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>71525.48744946941</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10436,10 +10436,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>6.451575368559181</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10465,13 +10465,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>149690.9235139953</v>
+      </c>
+      <c r="E7">
         <v>1299311.564504874</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40873.54225929632</v>
-      </c>
-      <c r="F7">
-        <v>149690.9235139953</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10481,10 +10481,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69250.51250179563</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10551,10 +10551,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.912077564717777</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10580,13 +10580,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>139696.0816779396</v>
+      </c>
+      <c r="E7">
         <v>1254179.398544281</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37455.58850003739</v>
-      </c>
-      <c r="F7">
-        <v>139696.0816779396</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10596,10 +10596,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66845.06510298165</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10666,10 +10666,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.393149382540432</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10695,13 +10695,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>135179.9464687744</v>
+      </c>
+      <c r="E7">
         <v>1210327.59133976</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>34167.95226050253</v>
-      </c>
-      <c r="F7">
-        <v>135179.9464687744</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10711,10 +10711,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64507.85807273384</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10781,10 +10781,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.128246166040149</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10810,13 +10810,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>143380.4216052524</v>
+      </c>
+      <c r="E7">
         <v>1171272.13256668</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>32489.67491028909</v>
-      </c>
-      <c r="F7">
-        <v>143380.4216052524</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10826,10 +10826,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62426.28610038006</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -10896,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>2.458180995730902E-13</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -10925,13 +10925,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>2.216353930542862E-07</v>
+      </c>
+      <c r="E7">
         <v>3.271763896378647</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>1.557364815106313E-09</v>
-      </c>
-      <c r="F7">
-        <v>2.216353930542862E-07</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -10941,10 +10941,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>0.1743779804618549</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.282072198060686</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11040,13 +11040,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>168159.2403914295</v>
+      </c>
+      <c r="E7">
         <v>1140002.141262756</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>33464.22987728399</v>
-      </c>
-      <c r="F7">
-        <v>168159.2403914295</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11056,10 +11056,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>60759.6628031814</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11126,10 +11126,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>5.999730649921449</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11155,13 +11155,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>210591.8491457827</v>
+      </c>
+      <c r="E7">
         <v>1118733.577598461</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>38010.90900356737</v>
-      </c>
-      <c r="F7">
-        <v>210591.8491457827</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11171,10 +11171,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59626.09409328486</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11241,10 +11241,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>7.323543151378466</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11270,13 +11270,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>268711.5175886838</v>
+      </c>
+      <c r="E7">
         <v>1108768.402568263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>46397.83826202108</v>
-      </c>
-      <c r="F7">
-        <v>268711.5175886838</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11286,10 +11286,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59094.97169211215</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11356,10 +11356,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>9.136107951899371</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11385,13 +11385,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>338190.0530928613</v>
+      </c>
+      <c r="E7">
         <v>1110468.271890015</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>57881.22638654818</v>
-      </c>
-      <c r="F7">
-        <v>338190.0530928613</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11401,10 +11401,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59185.57107176304</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11471,10 +11471,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>11.19948167072587</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11500,13 +11500,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>413035.487378215</v>
+      </c>
+      <c r="E7">
         <v>1123325.564318166</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>70953.59833839461</v>
-      </c>
-      <c r="F7">
-        <v>413035.487378215</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11516,10 +11516,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>59870.83711137854</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11586,10 +11586,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>13.19616507408574</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11615,13 +11615,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>484230.3318100403</v>
+      </c>
+      <c r="E7">
         <v>1146100.407841237</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>83603.45807085422</v>
-      </c>
-      <c r="F7">
-        <v>484230.3318100403</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11631,10 +11631,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>61084.68729882136</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11701,10 +11701,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>14.793260191672</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11730,13 +11730,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>540817.7849859025</v>
+      </c>
+      <c r="E7">
         <v>1176992.22255467</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>93721.75182882619</v>
-      </c>
-      <c r="F7">
-        <v>540817.7849859025</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11746,10 +11746,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>62731.15459693317</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11816,10 +11816,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.71820931491593</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11845,13 +11845,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>573224.1655188941</v>
+      </c>
+      <c r="E7">
         <v>1213822.32419591</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>99581.70771818176</v>
-      </c>
-      <c r="F7">
-        <v>573224.1655188941</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11861,10 +11861,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>64694.11981930542</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -11931,10 +11931,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.97301669023654</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11960,13 +11960,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>581214.3245110675</v>
+      </c>
+      <c r="E7">
         <v>1254213.027302536</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>101196.0235136544</v>
-      </c>
-      <c r="F7">
-        <v>581214.3245110675</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11976,10 +11976,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>66846.85744348532</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -12046,10 +12046,10 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>15.8093252854153</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -12075,13 +12075,13 @@
         <v>7</v>
       </c>
       <c r="D7">
+        <v>573179.5754179282</v>
+      </c>
+      <c r="E7">
         <v>1295754.435803299</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>100158.9671095627</v>
-      </c>
-      <c r="F7">
-        <v>573179.5754179282</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -12091,10 +12091,10 @@
         <v>8</v>
       </c>
       <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
         <v>69060.92519083158</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
